--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_test\sodw_sojw-soldout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2DD17-C766-42F0-A191-CACB5A416CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E57D5-69A4-4443-A067-FCBBCA4BECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27060" yWindow="840" windowWidth="27060" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27945" yWindow="210" windowWidth="27630" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6958,13 +6958,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E1090"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="B549" sqref="B549:B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -25507,5 +25507,6 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>